--- a/EXAMEN DE SIMULACION.xlsx
+++ b/EXAMEN DE SIMULACION.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab4-PC11\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46882A81-20F2-4E80-B90B-56C13D526112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D1F35D-84A5-4FB1-967D-DF3AF764A3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F29BB273-4AC6-47FA-9EFF-11E983B714CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F29BB273-4AC6-47FA-9EFF-11E983B714CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gráfico1" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,6 +93,3282 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-NI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BB9-4F2F-9B5D-D1709A87723E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>II</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1BB9-4F2F-9B5D-D1709A87723E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1BB9-4F2F-9B5D-D1709A87723E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pedidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1BB9-4F2F-9B5D-D1709A87723E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1BB9-4F2F-9B5D-D1709A87723E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1223001247"/>
+        <c:axId val="1225247759"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1223001247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-NI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1225247759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1225247759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-NI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1223001247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-NI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-NI"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-NI"/>
+              <a:t>Modelo de simulacion d</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-NI" baseline="0"/>
+              <a:t>e inventario</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-NI"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-NI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>II</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8FEA-45D7-96D8-B7592BDF3DFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8FEA-45D7-96D8-B7592BDF3DFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pedidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8FEA-45D7-96D8-B7592BDF3DFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8FEA-45D7-96D8-B7592BDF3DFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1223002687"/>
+        <c:axId val="1225246767"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1223002687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-NI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1225246767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1225246767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-NI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1223002687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-NI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-NI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2F69CCFE-DC09-4A6E-A599-42715823125F}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="66" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8673523" cy="6306705"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C4FB48-B835-976F-B0F0-1447DEDBA6F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C53B194-396D-6D37-DAD1-ECAB976128DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,8 +3670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6564557-D983-4B65-A2A4-6415349EB1D2}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +3706,7 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(5,10)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,3)</f>
@@ -437,7 +3714,7 @@
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f ca="1">B2-C2+D2</f>
@@ -450,19 +3727,19 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B31" ca="1" si="0">RANDBETWEEN(5,10)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:D31" ca="1" si="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E31" ca="1" si="2">B3-C3+D3</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -471,7 +3748,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
@@ -483,7 +3760,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -492,11 +3769,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
@@ -504,7 +3781,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -513,19 +3790,19 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -534,19 +3811,19 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -555,19 +3832,19 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -576,7 +3853,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
@@ -584,11 +3861,11 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,7 +3874,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
@@ -605,11 +3882,11 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -618,7 +3895,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
@@ -626,11 +3903,11 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -639,19 +3916,19 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -660,19 +3937,19 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -681,19 +3958,19 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -702,19 +3979,19 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -723,19 +4000,19 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -744,19 +4021,19 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -769,11 +4046,11 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
@@ -790,15 +4067,15 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,11 +4084,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
@@ -819,7 +4096,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -832,7 +4109,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
@@ -840,7 +4117,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -849,19 +4126,19 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -870,11 +4147,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
@@ -891,11 +4168,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
@@ -903,7 +4180,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -912,19 +4189,19 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -933,7 +4210,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
@@ -945,7 +4222,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -954,7 +4231,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
@@ -966,7 +4243,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -975,19 +4252,19 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -996,19 +4273,19 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,7 +4294,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
@@ -1025,11 +4302,11 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1038,23 +4315,24 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>